--- a/sw/project_files/Hendrix_M/Release/Hendrix_LiteV2_Notes/RD-Test Command Report.xlsx
+++ b/sw/project_files/Hendrix_M/Release/Hendrix_LiteV2_Notes/RD-Test Command Report.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\&amp;Zound\Hendrix_M_Lite\New folder\Hendrix_M_Lite_GD\sw\project_files\Hendrix_M\Release\Hendrix_LiteV2_Notes\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="7635" tabRatio="664"/>
   </bookViews>
@@ -158,31 +163,28 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Bill Wu</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Zorro</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Hendrix Lite</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.0.2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>6.0.4</t>
+  </si>
+  <si>
+    <t>Edmond Sung</t>
+  </si>
+  <si>
+    <t>Hendrix M Lite V2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -196,14 +198,14 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -223,7 +225,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -352,6 +354,33 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -382,36 +411,9 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -433,7 +435,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover"/>
@@ -768,21 +770,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:L3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -797,13 +799,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="15"/>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
+      <c r="A1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
       <c r="H1" s="6" t="s">
         <v>1</v>
       </c>
@@ -815,48 +817,48 @@
       <c r="L1" s="5"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="10" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="21"/>
+      <c r="H2" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="14"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="23"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="11" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="13">
+      <c r="G3" s="21"/>
+      <c r="H3" s="22">
         <v>43654</v>
       </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="14"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="23"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="2" t="s">
@@ -865,24 +867,24 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
       <c r="H4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
     </row>
     <row r="5" spans="1:12" ht="67.900000000000006" customHeight="1">
       <c r="A5" s="3">
@@ -891,22 +893,22 @@
       <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="21"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="10"/>
       <c r="H5" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="19"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="21"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="10"/>
     </row>
     <row r="6" spans="1:12" ht="69" customHeight="1">
       <c r="A6" s="3">
@@ -915,22 +917,22 @@
       <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="23"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="13"/>
       <c r="H6" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="24"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="21"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="10"/>
     </row>
     <row r="7" spans="1:12" ht="59.45" customHeight="1">
       <c r="A7" s="3">
@@ -939,22 +941,22 @@
       <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="21"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="10"/>
       <c r="H7" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="24"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="21"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="10"/>
     </row>
     <row r="8" spans="1:12" ht="59.45" customHeight="1">
       <c r="A8" s="3">
@@ -963,22 +965,22 @@
       <c r="B8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="21"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="10"/>
       <c r="H8" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="24"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="21"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="10"/>
     </row>
     <row r="9" spans="1:12" ht="51" customHeight="1">
       <c r="A9" s="3">
@@ -987,22 +989,22 @@
       <c r="B9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="21"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="10"/>
       <c r="H9" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J9" s="19"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="21"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="10"/>
     </row>
     <row r="10" spans="1:12" ht="51" customHeight="1">
       <c r="A10" s="3">
@@ -1011,22 +1013,22 @@
       <c r="B10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="23"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="13"/>
       <c r="H10" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="19"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="23"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="13"/>
     </row>
     <row r="11" spans="1:12" ht="52.15" customHeight="1">
       <c r="A11" s="3">
@@ -1035,22 +1037,22 @@
       <c r="B11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="21"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="10"/>
       <c r="H11" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J11" s="24"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="26"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="15"/>
     </row>
     <row r="12" spans="1:12" ht="49.9" customHeight="1">
       <c r="A12" s="3">
@@ -1059,137 +1061,170 @@
       <c r="B12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="21"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
       <c r="H12" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J12" s="24"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="26"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="15"/>
     </row>
     <row r="13" spans="1:12" ht="70.900000000000006" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="21"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="10"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="21"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="10"/>
     </row>
     <row r="14" spans="1:12" ht="59.45" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="21"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="10"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="21"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="10"/>
     </row>
     <row r="15" spans="1:12" ht="59.45" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="21"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="10"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="21"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="10"/>
     </row>
     <row r="16" spans="1:12" ht="59.45" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="21"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="10"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="21"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="10"/>
     </row>
     <row r="17" spans="1:12" ht="59.45" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="21"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="10"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="21"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="10"/>
     </row>
     <row r="18" spans="1:12" ht="59.45" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="21"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="10"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="21"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="10"/>
     </row>
     <row r="19" spans="1:12" ht="59.45" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="21"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="10"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="21"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="10"/>
     </row>
     <row r="20" spans="1:12" ht="59.45" customHeight="1">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="21"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="10"/>
       <c r="H20" s="3"/>
       <c r="I20" s="7"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="21"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="J15:L15"/>
     <mergeCell ref="C19:G19"/>
     <mergeCell ref="J19:L19"/>
     <mergeCell ref="C20:G20"/>
@@ -1200,39 +1235,6 @@
     <mergeCell ref="J17:L17"/>
     <mergeCell ref="C18:G18"/>
     <mergeCell ref="J18:L18"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:L2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1241,15 +1243,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -1299,7 +1292,28 @@
 </spe:Receivers>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocId xmlns="72de59d5-254d-430a-8862-e2bf58cab753">6TCUH2D2FU37-209-14453</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="72de59d5-254d-430a-8862-e2bf58cab753">
+      <Url>http://intranet.tymphany.com/Departments/sw/_layouts/15/DocIdRedir.aspx?ID=6TCUH2D2FU37-209-14453</Url>
+      <Description>6TCUH2D2FU37-209-14453</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006ADE9B120D8C2544A30794E0CE6B3CF6" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6b7a23d33ee8a228344a1c6303b6d86b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72de59d5-254d-430a-8862-e2bf58cab753" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b905d02d852158c2afe173951ebabb5b" ns2:_="">
     <xsd:import namespace="72de59d5-254d-430a-8862-e2bf58cab753"/>
@@ -1444,19 +1458,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocId xmlns="72de59d5-254d-430a-8862-e2bf58cab753">6TCUH2D2FU37-209-14453</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="72de59d5-254d-430a-8862-e2bf58cab753">
-      <Url>http://intranet.tymphany.com/Departments/sw/_layouts/15/DocIdRedir.aspx?ID=6TCUH2D2FU37-209-14453</Url>
-      <Description>6TCUH2D2FU37-209-14453</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFF19337-409A-4CFF-80EA-D2526D7612D6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0AA1759-4A2E-4491-9C5A-7766559224EF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -1464,15 +1474,23 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFF19337-409A-4CFF-80EA-D2526D7612D6}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90A17C51-7000-43B7-9373-E2C13FAD8445}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="72de59d5-254d-430a-8862-e2bf58cab753"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6290CC7F-B9B0-4D98-A55D-A30816CE8732}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1488,20 +1506,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90A17C51-7000-43B7-9373-E2C13FAD8445}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="72de59d5-254d-430a-8862-e2bf58cab753"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>